--- a/Lista_de_Itens.xlsx
+++ b/Lista_de_Itens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.paula_kovi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.paula_kovi\VSCodeProjects\MyOwnProjects\Autofiller_NBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6B1F34-4DC9-4F6E-8479-470DFFB705E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1644F4CB-566E-44D9-81FA-798C9B23EC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-16308" windowWidth="29016" windowHeight="16416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>ITEM</t>
   </si>
@@ -41,28 +41,643 @@
     <t>SALDO</t>
   </si>
   <si>
-    <t>item1</t>
-  </si>
-  <si>
-    <t>item2</t>
-  </si>
-  <si>
-    <t>item3</t>
-  </si>
-  <si>
-    <t>item4</t>
-  </si>
-  <si>
-    <t>item5</t>
-  </si>
-  <si>
-    <t>item6</t>
-  </si>
-  <si>
-    <t>item7</t>
-  </si>
-  <si>
-    <t>item8</t>
+    <t>AT0U0101Z-12D</t>
+  </si>
+  <si>
+    <t>AM011R0-7K</t>
+  </si>
+  <si>
+    <t>A8020FT-34H</t>
+  </si>
+  <si>
+    <t>A70608V-21Y</t>
+  </si>
+  <si>
+    <t>A80403V-227</t>
+  </si>
+  <si>
+    <t>FNIG00375</t>
+  </si>
+  <si>
+    <t>FNIG00307</t>
+  </si>
+  <si>
+    <t>FNIG00238</t>
+  </si>
+  <si>
+    <t>FNTN00357</t>
+  </si>
+  <si>
+    <t>FNTN00253</t>
+  </si>
+  <si>
+    <t>AT010PX-17J</t>
+  </si>
+  <si>
+    <t>FNIG00027</t>
+  </si>
+  <si>
+    <t>A804041-226</t>
+  </si>
+  <si>
+    <t>A7010603N-65</t>
+  </si>
+  <si>
+    <t>FNFX00211</t>
+  </si>
+  <si>
+    <t>AK0L063-619</t>
+  </si>
+  <si>
+    <t>FNLX00148</t>
+  </si>
+  <si>
+    <t>FNLX00482</t>
+  </si>
+  <si>
+    <t>FNTN00227</t>
+  </si>
+  <si>
+    <t>MCFX00607</t>
+  </si>
+  <si>
+    <t>FNIG00042</t>
+  </si>
+  <si>
+    <t>FNIG00099</t>
+  </si>
+  <si>
+    <t>A513D-14</t>
+  </si>
+  <si>
+    <t>FNIG00044</t>
+  </si>
+  <si>
+    <t>MCIG00565</t>
+  </si>
+  <si>
+    <t>FNLX00146</t>
+  </si>
+  <si>
+    <t>A52PT-3Z</t>
+  </si>
+  <si>
+    <t>FNIG00043</t>
+  </si>
+  <si>
+    <t>FNLX00149</t>
+  </si>
+  <si>
+    <t>FNIG00101</t>
+  </si>
+  <si>
+    <t>A9020904L-33C</t>
+  </si>
+  <si>
+    <t>FNIG00472</t>
+  </si>
+  <si>
+    <t>MCFX00329</t>
+  </si>
+  <si>
+    <t>GRFX00906</t>
+  </si>
+  <si>
+    <t>FNFX00208</t>
+  </si>
+  <si>
+    <t>A8030WR-1L</t>
+  </si>
+  <si>
+    <t>FNFX00210</t>
+  </si>
+  <si>
+    <t>FNIG00072</t>
+  </si>
+  <si>
+    <t>FNFX00209</t>
+  </si>
+  <si>
+    <t>AK0L063-58N</t>
+  </si>
+  <si>
+    <t>GRFX00903</t>
+  </si>
+  <si>
+    <t>GRFX00901</t>
+  </si>
+  <si>
+    <t>GRFX00997</t>
+  </si>
+  <si>
+    <t>MCFX00609</t>
+  </si>
+  <si>
+    <t>GRFX00862</t>
+  </si>
+  <si>
+    <t>GRFX00852</t>
+  </si>
+  <si>
+    <t>GRFX00846</t>
+  </si>
+  <si>
+    <t>GRFX00991</t>
+  </si>
+  <si>
+    <t>GRFX00996</t>
+  </si>
+  <si>
+    <t>GRFX00850</t>
+  </si>
+  <si>
+    <t>GRFX00844</t>
+  </si>
+  <si>
+    <t>A80308039-3J</t>
+  </si>
+  <si>
+    <t>AT010PX-18X</t>
+  </si>
+  <si>
+    <t>AT012YP-69</t>
+  </si>
+  <si>
+    <t>A11U2-271</t>
+  </si>
+  <si>
+    <t>AK0L0C9-4W</t>
+  </si>
+  <si>
+    <t>A701050BT-37N</t>
+  </si>
+  <si>
+    <t>A70105029-28D</t>
+  </si>
+  <si>
+    <t>A7010503H-23Y</t>
+  </si>
+  <si>
+    <t>A8020DH-51D</t>
+  </si>
+  <si>
+    <t>A8020X03H-22N</t>
+  </si>
+  <si>
+    <t>FNFX00212</t>
+  </si>
+  <si>
+    <t>FNLX01015</t>
+  </si>
+  <si>
+    <t>GRFX00835</t>
+  </si>
+  <si>
+    <t>GRFX00838</t>
+  </si>
+  <si>
+    <t>GRFX00840</t>
+  </si>
+  <si>
+    <t>GRFX00843</t>
+  </si>
+  <si>
+    <t>GRFX00845</t>
+  </si>
+  <si>
+    <t>GRFX00847</t>
+  </si>
+  <si>
+    <t>GRFX00855</t>
+  </si>
+  <si>
+    <t>GRFX00858</t>
+  </si>
+  <si>
+    <t>GRFX00863</t>
+  </si>
+  <si>
+    <t>GRFX00864</t>
+  </si>
+  <si>
+    <t>GRFX00871</t>
+  </si>
+  <si>
+    <t>GRFX00875</t>
+  </si>
+  <si>
+    <t>GRFX00887</t>
+  </si>
+  <si>
+    <t>GRFX00889</t>
+  </si>
+  <si>
+    <t>GRFX00890</t>
+  </si>
+  <si>
+    <t>GRFX00892</t>
+  </si>
+  <si>
+    <t>GRFX00893</t>
+  </si>
+  <si>
+    <t>GRFX00895</t>
+  </si>
+  <si>
+    <t>GRFX00897</t>
+  </si>
+  <si>
+    <t>GRFX00898</t>
+  </si>
+  <si>
+    <t>GRFX00899</t>
+  </si>
+  <si>
+    <t>GRFX00905</t>
+  </si>
+  <si>
+    <t>GRFX00907</t>
+  </si>
+  <si>
+    <t>GRFX00908</t>
+  </si>
+  <si>
+    <t>GRFX00909</t>
+  </si>
+  <si>
+    <t>GRFX00910</t>
+  </si>
+  <si>
+    <t>GRFX00911</t>
+  </si>
+  <si>
+    <t>GRFX00914</t>
+  </si>
+  <si>
+    <t>GRFX00915</t>
+  </si>
+  <si>
+    <t>GRFX00916</t>
+  </si>
+  <si>
+    <t>GRFX00917</t>
+  </si>
+  <si>
+    <t>GRFX00920</t>
+  </si>
+  <si>
+    <t>GRFX00921</t>
+  </si>
+  <si>
+    <t>GRFX00924</t>
+  </si>
+  <si>
+    <t>GRFX00925</t>
+  </si>
+  <si>
+    <t>GRFX00926</t>
+  </si>
+  <si>
+    <t>GRFX00927</t>
+  </si>
+  <si>
+    <t>GRFX00928</t>
+  </si>
+  <si>
+    <t>GRFX00935</t>
+  </si>
+  <si>
+    <t>GRFX00950</t>
+  </si>
+  <si>
+    <t>GRFX00960</t>
+  </si>
+  <si>
+    <t>GRFX00961</t>
+  </si>
+  <si>
+    <t>GRFX00964</t>
+  </si>
+  <si>
+    <t>GRFX00966</t>
+  </si>
+  <si>
+    <t>GRFX00970</t>
+  </si>
+  <si>
+    <t>GRFX00974</t>
+  </si>
+  <si>
+    <t>GRFX00981</t>
+  </si>
+  <si>
+    <t>GRFX00982</t>
+  </si>
+  <si>
+    <t>GRFX00984</t>
+  </si>
+  <si>
+    <t>GRFX00986</t>
+  </si>
+  <si>
+    <t>GRFX00987</t>
+  </si>
+  <si>
+    <t>GRFX00989</t>
+  </si>
+  <si>
+    <t>GRFX00992</t>
+  </si>
+  <si>
+    <t>GRFX00993</t>
+  </si>
+  <si>
+    <t>GRFX01001</t>
+  </si>
+  <si>
+    <t>GRFX01002</t>
+  </si>
+  <si>
+    <t>GRFX01005</t>
+  </si>
+  <si>
+    <t>GRFX01006</t>
+  </si>
+  <si>
+    <t>GRFX01010</t>
+  </si>
+  <si>
+    <t>GRIG01032</t>
+  </si>
+  <si>
+    <t>GRIG01026</t>
+  </si>
+  <si>
+    <t>A6021N6-14K</t>
+  </si>
+  <si>
+    <t>AT0107R-49</t>
+  </si>
+  <si>
+    <t>AE08V-12P</t>
+  </si>
+  <si>
+    <t>MCIG00425</t>
+  </si>
+  <si>
+    <t>FNIG00217</t>
+  </si>
+  <si>
+    <t>FNIG00108</t>
+  </si>
+  <si>
+    <t>FNLX00360</t>
+  </si>
+  <si>
+    <t>FNIG00169</t>
+  </si>
+  <si>
+    <t>A8020LT-11A</t>
+  </si>
+  <si>
+    <t>AA01V-249</t>
+  </si>
+  <si>
+    <t>FNLX00359</t>
+  </si>
+  <si>
+    <t>FNIG00291</t>
+  </si>
+  <si>
+    <t>AT010W3-13N</t>
+  </si>
+  <si>
+    <t>A70106017-32E</t>
+  </si>
+  <si>
+    <t>A6020V049-6D</t>
+  </si>
+  <si>
+    <t>FNTN00176</t>
+  </si>
+  <si>
+    <t>A6021H6-17B</t>
+  </si>
+  <si>
+    <t>A6020V01L-2H</t>
+  </si>
+  <si>
+    <t>A52PT-45</t>
+  </si>
+  <si>
+    <t>A51GQ-9H</t>
+  </si>
+  <si>
+    <t>FNIG00106</t>
+  </si>
+  <si>
+    <t>A9020904L-30F</t>
+  </si>
+  <si>
+    <t>A6020T1-3W</t>
+  </si>
+  <si>
+    <t>AT010M01N-121</t>
+  </si>
+  <si>
+    <t>A51GQ-12V</t>
+  </si>
+  <si>
+    <t>AC1WA-3T</t>
+  </si>
+  <si>
+    <t>A5271-26</t>
+  </si>
+  <si>
+    <t>AT01122-5K</t>
+  </si>
+  <si>
+    <t>AT673-1C</t>
+  </si>
+  <si>
+    <t>FNTN00404</t>
+  </si>
+  <si>
+    <t>FNTN00191</t>
+  </si>
+  <si>
+    <t>A7010VB-32Z</t>
+  </si>
+  <si>
+    <t>FNIG00488</t>
+  </si>
+  <si>
+    <t>AT01080AP-147</t>
+  </si>
+  <si>
+    <t>AT6NN-12D</t>
+  </si>
+  <si>
+    <t>MCFX00331</t>
+  </si>
+  <si>
+    <t>FNFX00401</t>
+  </si>
+  <si>
+    <t>AT040FL-4X</t>
+  </si>
+  <si>
+    <t>A6021H6-20N</t>
+  </si>
+  <si>
+    <t>A70106017-33P</t>
+  </si>
+  <si>
+    <t>A8020DH-549</t>
+  </si>
+  <si>
+    <t>GRIG01104</t>
+  </si>
+  <si>
+    <t>AT010T021-1W</t>
+  </si>
+  <si>
+    <t>AT010H039-3J</t>
+  </si>
+  <si>
+    <t>AT9VN-6M</t>
+  </si>
+  <si>
+    <t>FNLX00145</t>
+  </si>
+  <si>
+    <t>AT010Q0112G-57J</t>
+  </si>
+  <si>
+    <t>AJ010604X-18N</t>
+  </si>
+  <si>
+    <t>AT01122-4C</t>
+  </si>
+  <si>
+    <t>A8020X05X-77</t>
+  </si>
+  <si>
+    <t>AT01070JJ-1N</t>
+  </si>
+  <si>
+    <t>AT010T0AD-29</t>
+  </si>
+  <si>
+    <t>A6021DD-1M</t>
+  </si>
+  <si>
+    <t>A804041-24J</t>
+  </si>
+  <si>
+    <t>AT01122-19X</t>
+  </si>
+  <si>
+    <t>AT012YP-15E</t>
+  </si>
+  <si>
+    <t>AT011506W-19</t>
+  </si>
+  <si>
+    <t>A8020X029-113</t>
+  </si>
+  <si>
+    <t>AT012YP-105</t>
+  </si>
+  <si>
+    <t>AT013H0-4W</t>
+  </si>
+  <si>
+    <t>AT01080KX-11D</t>
+  </si>
+  <si>
+    <t>AJ0104P-12N</t>
+  </si>
+  <si>
+    <t>A80403V-30X</t>
+  </si>
+  <si>
+    <t>A70601P-69</t>
+  </si>
+  <si>
+    <t>A80203N-2X</t>
+  </si>
+  <si>
+    <t>AE08V-11D</t>
+  </si>
+  <si>
+    <t>A70602V-6L</t>
+  </si>
+  <si>
+    <t>A8020DH-10D</t>
+  </si>
+  <si>
+    <t>A70102B-65</t>
+  </si>
+  <si>
+    <t>A701015-58</t>
+  </si>
+  <si>
+    <t>A70601P-15E</t>
+  </si>
+  <si>
+    <t>A701015-12U</t>
+  </si>
+  <si>
+    <t>A70602V-15Q</t>
+  </si>
+  <si>
+    <t>A90301H-36B</t>
+  </si>
+  <si>
+    <t>A90201D-792</t>
+  </si>
+  <si>
+    <t>A70102B-249</t>
+  </si>
+  <si>
+    <t>A701015-21T</t>
+  </si>
+  <si>
+    <t>A70601P-274</t>
+  </si>
+  <si>
+    <t>A701015-20K</t>
+  </si>
+  <si>
+    <t>A70602V-316</t>
+  </si>
+  <si>
+    <t>A70602V-5D</t>
+  </si>
+  <si>
+    <t>A70105011-304</t>
+  </si>
+  <si>
+    <t>A602040116-9L</t>
+  </si>
+  <si>
+    <t>A60204021E-10J</t>
+  </si>
+  <si>
+    <t>A70105029-29T</t>
+  </si>
+  <si>
+    <t>MCIG00068</t>
+  </si>
+  <si>
+    <t>A3040102P-16T</t>
+  </si>
+  <si>
+    <t>A701060BZ-276</t>
+  </si>
+  <si>
+    <t>AJ010E042X-1C</t>
   </si>
 </sst>
 </file>
@@ -104,11 +719,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,10 +941,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -347,7 +961,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
@@ -411,688 +1025,1200 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+      <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="A74" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="A75" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B84" s="1"/>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B90" s="1"/>
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B92" s="1"/>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B93" s="1"/>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B94" s="1"/>
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B96" s="1"/>
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B97" s="1"/>
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B98" s="1"/>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B100" s="1"/>
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B101" s="1"/>
     </row>
     <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B102" s="1"/>
     </row>
     <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B104" s="1"/>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B105" s="1"/>
     </row>
     <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="B106" s="1"/>
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="B109" s="1"/>
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="B110" s="1"/>
     </row>
     <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="B111" s="1"/>
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B114" s="1"/>
     </row>
     <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="B115" s="1"/>
     </row>
     <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="B116" s="1"/>
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="B117" s="1"/>
     </row>
     <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B118" s="1"/>
     </row>
     <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="B123" s="1"/>
     </row>
     <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B124" s="1"/>
     </row>
     <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="B126" s="1"/>
     </row>
     <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="B129" s="1"/>
     </row>
     <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="B130" s="1"/>
     </row>
     <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="B132" s="1"/>
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="B134" s="1"/>
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="B135" s="1"/>
     </row>
     <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B136" s="1"/>
     </row>
     <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
+      <c r="A137" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
+      <c r="A138" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B145" s="1"/>
     </row>
     <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B146" s="1"/>
     </row>
     <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="B147" s="1"/>
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="B150" s="1"/>
     </row>
     <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B151" s="1"/>
     </row>
     <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B154" s="1"/>
     </row>
     <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="B155" s="1"/>
     </row>
     <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="B156" s="1"/>
     </row>
     <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="B157" s="1"/>
     </row>
     <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="B158" s="1"/>
     </row>
     <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="B159" s="1"/>
     </row>
     <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B160" s="1"/>
     </row>
     <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
+      <c r="A162" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="B163" s="1"/>
     </row>
     <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="B165" s="1"/>
     </row>
     <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="B166" s="1"/>
     </row>
     <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="B167" s="1"/>
     </row>
     <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="B169" s="1"/>
     </row>
     <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="B170" s="1"/>
     </row>
     <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="B172" s="1"/>
     </row>
     <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
+      <c r="A173" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="B173" s="1"/>
     </row>
     <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="B174" s="1"/>
     </row>
     <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
+      <c r="A175" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="B175" s="1"/>
     </row>
     <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="B176" s="1"/>
     </row>
     <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
+      <c r="A178" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="B179" s="1"/>
     </row>
     <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Lista_de_Itens.xlsx
+++ b/Lista_de_Itens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.paula_kovi\VSCodeProjects\MyOwnProjects\Autofiller_NBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADBE3B4-3E03-4C6C-88A2-1C2518C1DFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38017C22-5609-4E42-B6B0-27D5D8870CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-16308" windowWidth="29016" windowHeight="16416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -33,21 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ITEM</t>
   </si>
   <si>
     <t>SALDO</t>
-  </si>
-  <si>
-    <t>AT0U0101Z-12D</t>
-  </si>
-  <si>
-    <t>AM011R0-7K</t>
-  </si>
-  <si>
-    <t>AT010MF-1X</t>
   </si>
   <si>
     <t>AC0101T-7D</t>
@@ -56,52 +47,10 @@
     <t>AC0104B-19A</t>
   </si>
   <si>
-    <t>AT010Q0112G-46Z</t>
-  </si>
-  <si>
-    <t>AT0107R-1L</t>
-  </si>
-  <si>
     <t>AC010402R-23Q</t>
   </si>
   <si>
-    <t>AK0D04V-45</t>
-  </si>
-  <si>
-    <t>A9021BC-3P</t>
-  </si>
-  <si>
     <t>AJ0103J-5P</t>
-  </si>
-  <si>
-    <t>AK0D0403J-11M</t>
-  </si>
-  <si>
-    <t>AK0D04V-3X</t>
-  </si>
-  <si>
-    <t>AK0D04V-99</t>
-  </si>
-  <si>
-    <t>AT010PX-10X</t>
-  </si>
-  <si>
-    <t>AT040FL-3P</t>
-  </si>
-  <si>
-    <t>AT010K03N9-15Q</t>
-  </si>
-  <si>
-    <t>AK0L0C9-54</t>
-  </si>
-  <si>
-    <t>AT010Q0221-88F</t>
-  </si>
-  <si>
-    <t>FNLX00482</t>
-  </si>
-  <si>
-    <t>AT010PX-18X</t>
   </si>
   <si>
     <t>AC0103041-4Q</t>
@@ -113,49 +62,13 @@
     <t>AC03011-98</t>
   </si>
   <si>
-    <t>A70106017-32E</t>
-  </si>
-  <si>
-    <t>AT0U0101Z-249</t>
-  </si>
-  <si>
-    <t>AT010K03314-5J</t>
-  </si>
-  <si>
     <t>AC010BN-5L</t>
   </si>
   <si>
     <t>AE08V-11D</t>
   </si>
   <si>
-    <t>A70602V-6L</t>
-  </si>
-  <si>
-    <t>A90302N-1P</t>
-  </si>
-  <si>
-    <t>A70102B-65</t>
-  </si>
-  <si>
-    <t>A701015-12U</t>
-  </si>
-  <si>
-    <t>A70102B-141</t>
-  </si>
-  <si>
-    <t>AT0U0101Z-201</t>
-  </si>
-  <si>
     <t>AC03011-27F</t>
-  </si>
-  <si>
-    <t>A70602V-5D</t>
-  </si>
-  <si>
-    <t>A60204021E-10J</t>
-  </si>
-  <si>
-    <t>MCIG00068</t>
   </si>
 </sst>
 </file>
@@ -421,9 +334,7 @@
   </sheetPr>
   <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -440,7 +351,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>258</v>
@@ -448,7 +359,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -456,7 +367,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -464,7 +375,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -472,7 +383,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -480,7 +391,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -488,7 +399,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -496,7 +407,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>415</v>
@@ -504,7 +415,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>270</v>
@@ -512,243 +423,127 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>6</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>8</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>77</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1">
-        <v>50</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1">
-        <v>76</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>154</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1">
-        <v>194</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1">
-        <v>20</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1">
-        <v>73</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="1">
-        <v>4</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1">
-        <v>4</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="1">
-        <v>186</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1">
-        <v>266</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="1">
-        <v>4</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1">
-        <v>21</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1">
-        <v>16</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1">
-        <v>4</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1">
-        <v>4</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="1">
-        <v>7</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="1">
-        <v>8</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="1">
-        <v>687</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1">
-        <v>409</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
